--- a/Упражнения простые/7.Basic ESP.xlsx
+++ b/Упражнения простые/7.Basic ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC56411-AC23-4931-A509-8264C7921CC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F024D-982C-4133-861C-38114F9B5F40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="112" r:id="rId1"/>
@@ -787,14 +787,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2957,70 +2957,70 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>161.85708187264021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.25707071158007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.92945206018905</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.83711624218006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.85744185294098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.49559620063212</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154.50123380242957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151.79050234576818</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.36474302367856</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144.25295243713964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>139.48049021686506</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134.05888943103662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127.9795912278518</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>121.21226175989312</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>113.69602677483584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.32699719843571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95.930080141413455</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.18927813576417</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.465706215962769</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.127442116576844</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.859815243167617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.397520485036779</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -3170,58 +3170,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>193.17258259377189</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.05986635243067</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.42508172354911</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187.19804763286663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.64821972112316</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>184.02991961896993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.796503099456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178.57096492867259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.10982583373107</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168.27782348370982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.01177237080671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152.28949755116747</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142.08629396709037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.3170543284804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116.73129635548923</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.66801183967237</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.226036253483642</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.874917026199142</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5846,39 +5846,39 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" customWidth="1"/>
+    <col min="5" max="5" width="11.3046875" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" customWidth="1"/>
+    <col min="7" max="7" width="10.3046875" customWidth="1"/>
+    <col min="8" max="8" width="12.3046875" customWidth="1"/>
+    <col min="10" max="10" width="11.3046875" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" customWidth="1"/>
+    <col min="22" max="32" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -6024,12 +6024,12 @@
       <c r="E15" s="4"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
@@ -6084,12 +6084,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>23</v>
       </c>
@@ -6111,12 +6111,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.9" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
@@ -6182,17 +6182,17 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B39" s="17" t="s">
         <v>40</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18">
         <v>0.1</v>
       </c>
@@ -6230,14 +6230,14 @@
       </c>
       <c r="F40" s="23">
         <f>[1]!ESP_dP_atm(B40,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>193.17258259377189</v>
-      </c>
-      <c r="G40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23" t="e">
         <f>[1]!ESP_dP_atm(B40,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>161.85708187264021</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>1</v>
       </c>
@@ -6255,14 +6255,14 @@
       </c>
       <c r="F41" s="23">
         <f>[1]!ESP_dP_atm(B41,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>192.05986635243067</v>
-      </c>
-      <c r="G41" s="23">
+        <v>0</v>
+      </c>
+      <c r="G41" s="23" t="e">
         <f>[1]!ESP_dP_atm(B41,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>161.25707071158007</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18">
         <f>Qmax/n_</f>
         <v>3.8</v>
@@ -6281,14 +6281,14 @@
       </c>
       <c r="F42" s="23">
         <f>[1]!ESP_dP_atm(B42,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>189.42508172354911</v>
-      </c>
-      <c r="G42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="23" t="e">
         <f>[1]!ESP_dP_atm(B42,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>159.92945206018905</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <f t="shared" ref="B43:B66" si="0">Qmax/n_+B42</f>
         <v>7.6</v>
@@ -6307,14 +6307,14 @@
       </c>
       <c r="F43" s="23">
         <f>[1]!ESP_dP_atm(B43,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>187.19804763286663</v>
-      </c>
-      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23" t="e">
         <f>[1]!ESP_dP_atm(B43,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>158.83711624218006</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
         <f t="shared" si="0"/>
         <v>11.399999999999999</v>
@@ -6333,14 +6333,14 @@
       </c>
       <c r="F44" s="23">
         <f>[1]!ESP_dP_atm(B44,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>185.64821972112316</v>
-      </c>
-      <c r="G44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23" t="e">
         <f>[1]!ESP_dP_atm(B44,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>157.85744185294098</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18">
         <f t="shared" si="0"/>
         <v>15.2</v>
@@ -6359,14 +6359,14 @@
       </c>
       <c r="F45" s="23">
         <f>[1]!ESP_dP_atm(B45,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>184.02991961896993</v>
-      </c>
-      <c r="G45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23" t="e">
         <f>[1]!ESP_dP_atm(B45,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>156.49559620063212</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6385,14 +6385,14 @@
       </c>
       <c r="F46" s="23">
         <f>[1]!ESP_dP_atm(B46,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>181.796503099456</v>
-      </c>
-      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23" t="e">
         <f>[1]!ESP_dP_atm(B46,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>154.50123380242957</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B47" s="18">
         <f t="shared" si="0"/>
         <v>22.8</v>
@@ -6411,14 +6411,14 @@
       </c>
       <c r="F47" s="23">
         <f>[1]!ESP_dP_atm(B47,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>178.57096492867259</v>
-      </c>
-      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23" t="e">
         <f>[1]!ESP_dP_atm(B47,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>151.79050234576818</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18">
         <f t="shared" si="0"/>
         <v>26.6</v>
@@ -6437,14 +6437,14 @@
       </c>
       <c r="F48" s="23">
         <f>[1]!ESP_dP_atm(B48,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>174.10982583373107</v>
-      </c>
-      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23" t="e">
         <f>[1]!ESP_dP_atm(B48,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>148.36474302367856</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" s="18">
         <f t="shared" si="0"/>
         <v>30.400000000000002</v>
@@ -6463,14 +6463,14 @@
       </c>
       <c r="F49" s="23">
         <f>[1]!ESP_dP_atm(B49,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>168.27782348370982</v>
-      </c>
-      <c r="G49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23" t="e">
         <f>[1]!ESP_dP_atm(B49,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>144.25295243713964</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B50" s="18">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
@@ -6489,14 +6489,14 @@
       </c>
       <c r="F50" s="23">
         <f>[1]!ESP_dP_atm(B50,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>161.01177237080671</v>
-      </c>
-      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="23" t="e">
         <f>[1]!ESP_dP_atm(B50,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>139.48049021686506</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B51" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6515,14 +6515,14 @@
       </c>
       <c r="F51" s="23">
         <f>[1]!ESP_dP_atm(B51,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>152.28949755116747</v>
-      </c>
-      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23" t="e">
         <f>[1]!ESP_dP_atm(B51,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>134.05888943103662</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B52" s="18">
         <f t="shared" si="0"/>
         <v>41.8</v>
@@ -6541,14 +6541,14 @@
       </c>
       <c r="F52" s="23">
         <f>[1]!ESP_dP_atm(B52,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>142.08629396709037</v>
-      </c>
-      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="G52" s="23" t="e">
         <f>[1]!ESP_dP_atm(B52,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>127.9795912278518</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B53" s="18">
         <f t="shared" si="0"/>
         <v>45.599999999999994</v>
@@ -6567,14 +6567,14 @@
       </c>
       <c r="F53" s="23">
         <f>[1]!ESP_dP_atm(B53,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>130.3170543284804</v>
-      </c>
-      <c r="G53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23" t="e">
         <f>[1]!ESP_dP_atm(B53,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>121.21226175989312</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B54" s="18">
         <f t="shared" si="0"/>
         <v>49.399999999999991</v>
@@ -6593,14 +6593,14 @@
       </c>
       <c r="F54" s="23">
         <f>[1]!ESP_dP_atm(B54,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>116.73129635548923</v>
-      </c>
-      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23" t="e">
         <f>[1]!ESP_dP_atm(B54,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>113.69602677483584</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" s="18">
         <f t="shared" si="0"/>
         <v>53.199999999999989</v>
@@ -6619,14 +6619,14 @@
       </c>
       <c r="F55" s="23">
         <f>[1]!ESP_dP_atm(B55,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>100.66801183967237</v>
-      </c>
-      <c r="G55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23" t="e">
         <f>[1]!ESP_dP_atm(B55,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>105.32699719843571</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B56" s="18">
         <f t="shared" si="0"/>
         <v>56.999999999999986</v>
@@ -6645,14 +6645,14 @@
       </c>
       <c r="F56" s="23">
         <f>[1]!ESP_dP_atm(B56,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>80.226036253483642</v>
-      </c>
-      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23" t="e">
         <f>[1]!ESP_dP_atm(B56,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>95.930080141413455</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" s="18">
         <f t="shared" si="0"/>
         <v>60.799999999999983</v>
@@ -6671,14 +6671,14 @@
       </c>
       <c r="F57" s="23">
         <f>[1]!ESP_dP_atm(B57,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>46.874917026199142</v>
-      </c>
-      <c r="G57" s="23">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23" t="e">
         <f>[1]!ESP_dP_atm(B57,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>85.18927813576417</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
         <f t="shared" si="0"/>
         <v>64.59999999999998</v>
@@ -6699,12 +6699,12 @@
         <f>[1]!ESP_dP_atm(B58,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="23" t="e">
         <f>[1]!ESP_dP_atm(B58,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>72.465706215962769</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B59" s="18">
         <f t="shared" si="0"/>
         <v>68.399999999999977</v>
@@ -6725,12 +6725,12 @@
         <f>[1]!ESP_dP_atm(B59,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="23" t="e">
         <f>[1]!ESP_dP_atm(B59,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>56.127442116576844</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B60" s="18">
         <f t="shared" si="0"/>
         <v>72.199999999999974</v>
@@ -6751,12 +6751,12 @@
         <f>[1]!ESP_dP_atm(B60,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="23" t="e">
         <f>[1]!ESP_dP_atm(B60,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>35.859815243167617</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B61" s="18">
         <f t="shared" si="0"/>
         <v>75.999999999999972</v>
@@ -6777,12 +6777,12 @@
         <f>[1]!ESP_dP_atm(B61,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="23" t="e">
         <f>[1]!ESP_dP_atm(B61,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>12.397520485036779</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B62" s="18">
         <f t="shared" si="0"/>
         <v>79.799999999999969</v>
@@ -6803,12 +6803,12 @@
         <f>[1]!ESP_dP_atm(B62,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="23" t="e">
         <f>[1]!ESP_dP_atm(B62,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B63" s="18">
         <f t="shared" si="0"/>
         <v>83.599999999999966</v>
@@ -6829,12 +6829,12 @@
         <f>[1]!ESP_dP_atm(B63,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="23" t="e">
         <f>[1]!ESP_dP_atm(B63,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B64" s="18">
         <f t="shared" si="0"/>
         <v>87.399999999999963</v>
@@ -6855,12 +6855,12 @@
         <f>[1]!ESP_dP_atm(B64,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="23" t="e">
         <f>[1]!ESP_dP_atm(B64,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18">
         <f t="shared" si="0"/>
         <v>91.19999999999996</v>
@@ -6881,12 +6881,12 @@
         <f>[1]!ESP_dP_atm(B65,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="23" t="e">
         <f>[1]!ESP_dP_atm(B65,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" s="18">
         <f t="shared" si="0"/>
         <v>94.999999999999957</v>
@@ -6907,33 +6907,33 @@
         <f>[1]!ESP_dP_atm(B66,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="23" t="e">
         <f>[1]!ESP_dP_atm(B66,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="81" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="82" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="83" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="84" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="85" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="86" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="87" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="88" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="81" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="82" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="83" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="84" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="85" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="86" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="87" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="88" outlineLevel="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
